--- a/result.xlsx
+++ b/result.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,39 +477,51 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D7" s="1" t="n">
         <v>6</v>
       </c>
     </row>
